--- a/Documentacion/diagrama-gant.xlsx
+++ b/Documentacion/diagrama-gant.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Reto2023\Documentacion\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carra\Desktop\reto2023\Documentacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD4F0116-93C4-4B7B-9A36-064B85824B2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{027E857B-CF37-4C1E-9036-99474F71564B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -871,7 +871,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -934,55 +934,11 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="14" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1014,24 +970,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1069,13 +1007,13 @@
     <xf numFmtId="0" fontId="1" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1083,7 +1021,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1093,6 +1031,33 @@
     <xf numFmtId="0" fontId="0" fillId="17" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1479,7 +1444,7 @@
   <dimension ref="A1:S35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15"/>
@@ -1511,143 +1476,143 @@
     <row r="2" spans="1:19" ht="15.75" customHeight="1" thickBot="1">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
-      <c r="C2" s="46" t="s">
+      <c r="C2" s="73" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="46" t="s">
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="73" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44"/>
-      <c r="K2" s="44"/>
-      <c r="L2" s="44"/>
-      <c r="M2" s="44"/>
-      <c r="N2" s="44"/>
-      <c r="O2" s="44"/>
-      <c r="P2" s="44"/>
-      <c r="Q2" s="44"/>
-      <c r="R2" s="45"/>
+      <c r="H2" s="74"/>
+      <c r="I2" s="74"/>
+      <c r="J2" s="74"/>
+      <c r="K2" s="74"/>
+      <c r="L2" s="74"/>
+      <c r="M2" s="74"/>
+      <c r="N2" s="74"/>
+      <c r="O2" s="74"/>
+      <c r="P2" s="74"/>
+      <c r="Q2" s="74"/>
+      <c r="R2" s="75"/>
       <c r="S2" s="2"/>
     </row>
     <row r="3" spans="1:19" ht="15.75" thickBot="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="91" t="s">
+      <c r="B3" s="69" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="62" t="s">
+      <c r="C3" s="76" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="63"/>
-      <c r="G3" s="64"/>
-      <c r="H3" s="62" t="s">
+      <c r="D3" s="78"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="78"/>
+      <c r="G3" s="77"/>
+      <c r="H3" s="76" t="s">
         <v>21</v>
       </c>
-      <c r="I3" s="64"/>
-      <c r="J3" s="62" t="s">
+      <c r="I3" s="77"/>
+      <c r="J3" s="76" t="s">
         <v>22</v>
       </c>
-      <c r="K3" s="63"/>
-      <c r="L3" s="63"/>
-      <c r="M3" s="63"/>
-      <c r="N3" s="64"/>
-      <c r="O3" s="62" t="s">
+      <c r="K3" s="78"/>
+      <c r="L3" s="78"/>
+      <c r="M3" s="78"/>
+      <c r="N3" s="77"/>
+      <c r="O3" s="76" t="s">
         <v>23</v>
       </c>
-      <c r="P3" s="63"/>
-      <c r="Q3" s="63"/>
-      <c r="R3" s="64"/>
+      <c r="P3" s="78"/>
+      <c r="Q3" s="78"/>
+      <c r="R3" s="77"/>
       <c r="S3" s="2"/>
     </row>
     <row r="4" spans="1:19" ht="15.75" thickBot="1">
       <c r="A4" s="1"/>
-      <c r="B4" s="56" t="s">
+      <c r="B4" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="65">
+      <c r="C4" s="43">
         <v>27</v>
       </c>
-      <c r="D4" s="66">
+      <c r="D4" s="44">
         <v>28</v>
       </c>
-      <c r="E4" s="66">
+      <c r="E4" s="44">
         <v>29</v>
       </c>
-      <c r="F4" s="66">
+      <c r="F4" s="44">
         <v>30</v>
       </c>
-      <c r="G4" s="67">
+      <c r="G4" s="45">
         <v>1</v>
       </c>
-      <c r="H4" s="65">
+      <c r="H4" s="43">
         <v>4</v>
       </c>
-      <c r="I4" s="67">
+      <c r="I4" s="45">
         <v>5</v>
       </c>
-      <c r="J4" s="65">
+      <c r="J4" s="43">
         <v>11</v>
       </c>
-      <c r="K4" s="66">
+      <c r="K4" s="44">
         <v>12</v>
       </c>
-      <c r="L4" s="66">
+      <c r="L4" s="44">
         <v>13</v>
       </c>
-      <c r="M4" s="66">
+      <c r="M4" s="44">
         <v>14</v>
       </c>
-      <c r="N4" s="67">
+      <c r="N4" s="45">
         <v>15</v>
       </c>
-      <c r="O4" s="65">
+      <c r="O4" s="43">
         <v>18</v>
       </c>
-      <c r="P4" s="66">
+      <c r="P4" s="44">
         <v>19</v>
       </c>
-      <c r="Q4" s="66">
+      <c r="Q4" s="44">
         <v>20</v>
       </c>
-      <c r="R4" s="67">
+      <c r="R4" s="45">
         <v>21</v>
       </c>
       <c r="S4" s="3"/>
     </row>
     <row r="5" spans="1:19" ht="15.75" thickBot="1">
       <c r="A5" s="1"/>
-      <c r="B5" s="57" t="s">
+      <c r="B5" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="59" t="s">
+      <c r="C5" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="60"/>
-      <c r="E5" s="60"/>
-      <c r="F5" s="60"/>
-      <c r="G5" s="60" t="s">
+      <c r="D5" s="71"/>
+      <c r="E5" s="71"/>
+      <c r="F5" s="71"/>
+      <c r="G5" s="71" t="s">
         <v>3</v>
       </c>
-      <c r="H5" s="60"/>
-      <c r="I5" s="60"/>
-      <c r="J5" s="60"/>
-      <c r="K5" s="60" t="s">
+      <c r="H5" s="71"/>
+      <c r="I5" s="71"/>
+      <c r="J5" s="71"/>
+      <c r="K5" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="L5" s="60"/>
-      <c r="M5" s="60"/>
-      <c r="N5" s="60"/>
-      <c r="O5" s="60" t="s">
+      <c r="L5" s="71"/>
+      <c r="M5" s="71"/>
+      <c r="N5" s="71"/>
+      <c r="O5" s="71" t="s">
         <v>5</v>
       </c>
-      <c r="P5" s="60"/>
-      <c r="Q5" s="61"/>
-      <c r="R5" s="77"/>
+      <c r="P5" s="71"/>
+      <c r="Q5" s="72"/>
+      <c r="R5" s="55"/>
       <c r="S5" s="1"/>
     </row>
     <row r="6" spans="1:19">
@@ -1665,7 +1630,7 @@
       <c r="J6" s="5"/>
       <c r="K6" s="6"/>
       <c r="L6" s="6"/>
-      <c r="M6" s="40"/>
+      <c r="M6" s="6"/>
       <c r="N6" s="7"/>
       <c r="O6" s="5"/>
       <c r="P6" s="6"/>
@@ -1675,22 +1640,22 @@
     </row>
     <row r="7" spans="1:19" ht="15.75" thickBot="1">
       <c r="A7" s="1"/>
-      <c r="B7" s="58" t="s">
+      <c r="B7" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="68">
+      <c r="C7" s="46">
         <v>1</v>
       </c>
-      <c r="D7" s="38"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="43"/>
-      <c r="H7" s="27"/>
-      <c r="I7" s="43"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="24"/>
       <c r="J7" s="23"/>
       <c r="K7" s="9"/>
       <c r="L7" s="9"/>
-      <c r="M7" s="38"/>
+      <c r="M7" s="9"/>
       <c r="N7" s="24"/>
       <c r="O7" s="23"/>
       <c r="P7" s="9"/>
@@ -1703,17 +1668,17 @@
       <c r="B8" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="26"/>
-      <c r="D8" s="40"/>
-      <c r="E8" s="40"/>
-      <c r="F8" s="40"/>
-      <c r="G8" s="41"/>
-      <c r="H8" s="26"/>
-      <c r="I8" s="41"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="7"/>
       <c r="J8" s="5"/>
       <c r="K8" s="6"/>
       <c r="L8" s="6"/>
-      <c r="M8" s="40"/>
+      <c r="M8" s="6"/>
       <c r="N8" s="7"/>
       <c r="O8" s="5"/>
       <c r="P8" s="6"/>
@@ -1726,19 +1691,19 @@
       <c r="B9" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="69">
+      <c r="C9" s="47">
         <v>1</v>
       </c>
-      <c r="D9" s="31"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="32"/>
-      <c r="H9" s="28"/>
-      <c r="I9" s="32"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="14"/>
       <c r="J9" s="15"/>
       <c r="K9" s="13"/>
       <c r="L9" s="13"/>
-      <c r="M9" s="31"/>
+      <c r="M9" s="13"/>
       <c r="N9" s="14"/>
       <c r="O9" s="15"/>
       <c r="P9" s="13"/>
@@ -1751,19 +1716,19 @@
       <c r="B10" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="28"/>
-      <c r="D10" s="47">
+      <c r="C10" s="15"/>
+      <c r="D10" s="31">
         <v>2</v>
       </c>
-      <c r="E10" s="31"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="32"/>
-      <c r="H10" s="28"/>
-      <c r="I10" s="32"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="14"/>
       <c r="J10" s="15"/>
       <c r="K10" s="13"/>
       <c r="L10" s="13"/>
-      <c r="M10" s="31"/>
+      <c r="M10" s="13"/>
       <c r="N10" s="14"/>
       <c r="O10" s="15"/>
       <c r="P10" s="13"/>
@@ -1776,21 +1741,21 @@
       <c r="B11" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="69">
+      <c r="C11" s="47">
         <v>3</v>
       </c>
-      <c r="D11" s="47">
+      <c r="D11" s="31">
         <v>3</v>
       </c>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="32"/>
-      <c r="H11" s="28"/>
-      <c r="I11" s="32"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="14"/>
       <c r="J11" s="15"/>
       <c r="K11" s="13"/>
       <c r="L11" s="13"/>
-      <c r="M11" s="31"/>
+      <c r="M11" s="13"/>
       <c r="N11" s="14"/>
       <c r="O11" s="15"/>
       <c r="P11" s="13"/>
@@ -1800,28 +1765,28 @@
     </row>
     <row r="12" spans="1:19">
       <c r="A12" s="1"/>
-      <c r="B12" s="51" t="s">
+      <c r="B12" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="28"/>
-      <c r="D12" s="47">
+      <c r="C12" s="15"/>
+      <c r="D12" s="31">
         <v>4</v>
       </c>
-      <c r="E12" s="47">
+      <c r="E12" s="31">
         <v>4</v>
       </c>
-      <c r="F12" s="47">
+      <c r="F12" s="31">
         <v>4</v>
       </c>
-      <c r="G12" s="70">
+      <c r="G12" s="48">
         <v>4</v>
       </c>
-      <c r="H12" s="28"/>
-      <c r="I12" s="32"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="14"/>
       <c r="J12" s="15"/>
       <c r="K12" s="13"/>
       <c r="L12" s="13"/>
-      <c r="M12" s="31"/>
+      <c r="M12" s="13"/>
       <c r="N12" s="14"/>
       <c r="O12" s="15"/>
       <c r="P12" s="13"/>
@@ -1831,24 +1796,24 @@
     </row>
     <row r="13" spans="1:19">
       <c r="A13" s="1"/>
-      <c r="B13" s="52" t="s">
+      <c r="B13" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="C13" s="28"/>
-      <c r="D13" s="47">
+      <c r="C13" s="15"/>
+      <c r="D13" s="31">
         <v>5</v>
       </c>
-      <c r="E13" s="47">
+      <c r="E13" s="31">
         <v>5</v>
       </c>
-      <c r="F13" s="31"/>
-      <c r="G13" s="32"/>
-      <c r="H13" s="28"/>
-      <c r="I13" s="32"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="14"/>
       <c r="J13" s="15"/>
       <c r="K13" s="13"/>
       <c r="L13" s="13"/>
-      <c r="M13" s="31"/>
+      <c r="M13" s="13"/>
       <c r="N13" s="14"/>
       <c r="O13" s="15"/>
       <c r="P13" s="13"/>
@@ -1858,24 +1823,24 @@
     </row>
     <row r="14" spans="1:19">
       <c r="A14" s="1"/>
-      <c r="B14" s="51" t="s">
+      <c r="B14" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="28"/>
-      <c r="D14" s="31"/>
-      <c r="E14" s="31"/>
-      <c r="F14" s="47">
+      <c r="C14" s="15"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="31">
         <v>6</v>
       </c>
-      <c r="G14" s="70">
+      <c r="G14" s="48">
         <v>6</v>
       </c>
-      <c r="H14" s="28"/>
-      <c r="I14" s="32"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="14"/>
       <c r="J14" s="15"/>
       <c r="K14" s="13"/>
       <c r="L14" s="13"/>
-      <c r="M14" s="31"/>
+      <c r="M14" s="13"/>
       <c r="N14" s="14"/>
       <c r="O14" s="15"/>
       <c r="P14" s="13"/>
@@ -1885,11 +1850,11 @@
     </row>
     <row r="15" spans="1:19" ht="15.75" thickBot="1">
       <c r="A15" s="1"/>
-      <c r="B15" s="79" t="s">
+      <c r="B15" s="57" t="s">
         <v>30</v>
       </c>
       <c r="C15" s="23"/>
-      <c r="D15" s="80">
+      <c r="D15" s="58">
         <v>7</v>
       </c>
       <c r="E15" s="9"/>
@@ -1900,7 +1865,7 @@
       <c r="J15" s="23"/>
       <c r="K15" s="9"/>
       <c r="L15" s="9"/>
-      <c r="M15" s="38"/>
+      <c r="M15" s="9"/>
       <c r="N15" s="24"/>
       <c r="O15" s="23"/>
       <c r="P15" s="9"/>
@@ -1913,22 +1878,22 @@
       <c r="B16" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="81"/>
-      <c r="D16" s="82"/>
-      <c r="E16" s="82"/>
-      <c r="F16" s="82"/>
-      <c r="G16" s="83"/>
-      <c r="H16" s="81"/>
-      <c r="I16" s="83"/>
-      <c r="J16" s="81"/>
-      <c r="K16" s="82"/>
-      <c r="L16" s="82"/>
-      <c r="M16" s="40"/>
-      <c r="N16" s="41"/>
-      <c r="O16" s="26"/>
-      <c r="P16" s="40"/>
-      <c r="Q16" s="41"/>
-      <c r="R16" s="42"/>
+      <c r="C16" s="59"/>
+      <c r="D16" s="60"/>
+      <c r="E16" s="60"/>
+      <c r="F16" s="60"/>
+      <c r="G16" s="61"/>
+      <c r="H16" s="59"/>
+      <c r="I16" s="61"/>
+      <c r="J16" s="59"/>
+      <c r="K16" s="60"/>
+      <c r="L16" s="60"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="7"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="6"/>
+      <c r="Q16" s="7"/>
+      <c r="R16" s="8"/>
       <c r="S16" s="1"/>
     </row>
     <row r="17" spans="1:19">
@@ -1936,36 +1901,36 @@
       <c r="B17" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="C17" s="28"/>
-      <c r="D17" s="31"/>
-      <c r="E17" s="31"/>
-      <c r="F17" s="31"/>
-      <c r="G17" s="32"/>
-      <c r="H17" s="71">
+      <c r="C17" s="15"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="49">
         <v>1</v>
       </c>
-      <c r="I17" s="73">
+      <c r="I17" s="51">
         <v>1</v>
       </c>
-      <c r="J17" s="71">
+      <c r="J17" s="49">
         <v>1</v>
       </c>
-      <c r="K17" s="48">
+      <c r="K17" s="32">
         <v>1</v>
       </c>
-      <c r="L17" s="48">
+      <c r="L17" s="32">
         <v>1</v>
       </c>
-      <c r="M17" s="48">
+      <c r="M17" s="32">
         <v>1</v>
       </c>
-      <c r="N17" s="73">
+      <c r="N17" s="51">
         <v>1</v>
       </c>
-      <c r="O17" s="28"/>
-      <c r="P17" s="31"/>
-      <c r="Q17" s="32"/>
-      <c r="R17" s="33"/>
+      <c r="O17" s="15"/>
+      <c r="P17" s="13"/>
+      <c r="Q17" s="14"/>
+      <c r="R17" s="16"/>
       <c r="S17" s="1"/>
     </row>
     <row r="18" spans="1:19">
@@ -1973,32 +1938,32 @@
       <c r="B18" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="C18" s="28"/>
-      <c r="D18" s="31"/>
-      <c r="E18" s="31"/>
-      <c r="F18" s="31"/>
-      <c r="G18" s="32"/>
-      <c r="H18" s="28"/>
-      <c r="I18" s="32"/>
-      <c r="J18" s="71">
+      <c r="C18" s="15"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="49">
         <v>2</v>
       </c>
-      <c r="K18" s="48">
+      <c r="K18" s="32">
         <v>2</v>
       </c>
-      <c r="L18" s="48">
+      <c r="L18" s="32">
         <v>2</v>
       </c>
-      <c r="M18" s="48">
+      <c r="M18" s="32">
         <v>2</v>
       </c>
-      <c r="N18" s="73">
+      <c r="N18" s="51">
         <v>2</v>
       </c>
-      <c r="O18" s="28"/>
-      <c r="P18" s="31"/>
-      <c r="Q18" s="32"/>
-      <c r="R18" s="33"/>
+      <c r="O18" s="15"/>
+      <c r="P18" s="13"/>
+      <c r="Q18" s="14"/>
+      <c r="R18" s="16"/>
       <c r="S18" s="1"/>
     </row>
     <row r="19" spans="1:19">
@@ -2006,225 +1971,225 @@
       <c r="B19" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="C19" s="71">
+      <c r="C19" s="49">
         <v>3</v>
       </c>
-      <c r="D19" s="48">
+      <c r="D19" s="32">
         <v>3</v>
       </c>
-      <c r="E19" s="48">
+      <c r="E19" s="32">
         <v>3</v>
       </c>
-      <c r="F19" s="48">
+      <c r="F19" s="32">
         <v>3</v>
       </c>
-      <c r="G19" s="32"/>
-      <c r="H19" s="28"/>
-      <c r="I19" s="32"/>
-      <c r="J19" s="71">
+      <c r="G19" s="14"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="49">
         <v>3</v>
       </c>
-      <c r="K19" s="48">
+      <c r="K19" s="32">
         <v>3</v>
       </c>
-      <c r="L19" s="31"/>
-      <c r="M19" s="31"/>
-      <c r="N19" s="32"/>
-      <c r="O19" s="28"/>
-      <c r="P19" s="31"/>
-      <c r="Q19" s="32"/>
-      <c r="R19" s="33"/>
+      <c r="L19" s="13"/>
+      <c r="M19" s="13"/>
+      <c r="N19" s="14"/>
+      <c r="O19" s="15"/>
+      <c r="P19" s="13"/>
+      <c r="Q19" s="14"/>
+      <c r="R19" s="16"/>
       <c r="S19" s="1"/>
     </row>
     <row r="20" spans="1:19">
       <c r="A20" s="1"/>
-      <c r="B20" s="53" t="s">
+      <c r="B20" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="C20" s="29"/>
-      <c r="D20" s="34"/>
-      <c r="E20" s="31"/>
-      <c r="F20" s="31"/>
-      <c r="G20" s="35"/>
-      <c r="H20" s="29"/>
-      <c r="I20" s="35"/>
-      <c r="J20" s="74">
+      <c r="C20" s="26"/>
+      <c r="D20" s="28"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="29"/>
+      <c r="H20" s="26"/>
+      <c r="I20" s="29"/>
+      <c r="J20" s="52">
         <v>4</v>
       </c>
-      <c r="K20" s="49">
+      <c r="K20" s="33">
         <v>4</v>
       </c>
-      <c r="L20" s="49">
+      <c r="L20" s="33">
         <v>4</v>
       </c>
-      <c r="M20" s="34"/>
-      <c r="N20" s="35"/>
-      <c r="O20" s="29"/>
-      <c r="P20" s="34"/>
-      <c r="Q20" s="35"/>
-      <c r="R20" s="36"/>
+      <c r="M20" s="28"/>
+      <c r="N20" s="29"/>
+      <c r="O20" s="26"/>
+      <c r="P20" s="28"/>
+      <c r="Q20" s="29"/>
+      <c r="R20" s="30"/>
       <c r="S20" s="1"/>
     </row>
     <row r="21" spans="1:19">
       <c r="A21" s="1"/>
-      <c r="B21" s="54" t="s">
+      <c r="B21" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="C21" s="29"/>
-      <c r="D21" s="34"/>
-      <c r="E21" s="34"/>
-      <c r="F21" s="31"/>
-      <c r="G21" s="35"/>
-      <c r="H21" s="29"/>
-      <c r="I21" s="35"/>
-      <c r="J21" s="29"/>
-      <c r="K21" s="34"/>
-      <c r="L21" s="34"/>
-      <c r="M21" s="49">
+      <c r="C21" s="26"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="29"/>
+      <c r="H21" s="26"/>
+      <c r="I21" s="29"/>
+      <c r="J21" s="26"/>
+      <c r="K21" s="28"/>
+      <c r="L21" s="28"/>
+      <c r="M21" s="33">
         <v>5</v>
       </c>
-      <c r="N21" s="75">
+      <c r="N21" s="53">
         <v>5</v>
       </c>
-      <c r="O21" s="29"/>
-      <c r="P21" s="34"/>
-      <c r="Q21" s="35"/>
-      <c r="R21" s="36"/>
+      <c r="O21" s="26"/>
+      <c r="P21" s="28"/>
+      <c r="Q21" s="29"/>
+      <c r="R21" s="30"/>
       <c r="S21" s="1"/>
     </row>
     <row r="22" spans="1:19" ht="15.75" thickBot="1">
       <c r="A22" s="1"/>
-      <c r="B22" s="84" t="s">
+      <c r="B22" s="62" t="s">
         <v>33</v>
       </c>
-      <c r="C22" s="30"/>
-      <c r="D22" s="37"/>
-      <c r="E22" s="38"/>
-      <c r="F22" s="37"/>
-      <c r="G22" s="39"/>
-      <c r="H22" s="85">
+      <c r="C22" s="27"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="20"/>
+      <c r="H22" s="63">
         <v>6</v>
       </c>
-      <c r="I22" s="86">
+      <c r="I22" s="64">
         <v>6</v>
       </c>
-      <c r="J22" s="30"/>
-      <c r="K22" s="37"/>
-      <c r="L22" s="37"/>
+      <c r="J22" s="27"/>
+      <c r="K22" s="19"/>
+      <c r="L22" s="19"/>
       <c r="M22" s="19"/>
       <c r="N22" s="20"/>
-      <c r="O22" s="30"/>
-      <c r="P22" s="37"/>
-      <c r="Q22" s="39"/>
-      <c r="R22" s="87"/>
+      <c r="O22" s="27"/>
+      <c r="P22" s="19"/>
+      <c r="Q22" s="20"/>
+      <c r="R22" s="65"/>
       <c r="S22" s="1"/>
     </row>
     <row r="23" spans="1:19">
       <c r="A23" s="1"/>
-      <c r="B23" s="88" t="s">
+      <c r="B23" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="C23" s="26"/>
-      <c r="D23" s="40"/>
-      <c r="E23" s="40"/>
-      <c r="F23" s="40"/>
-      <c r="G23" s="41"/>
-      <c r="H23" s="26"/>
-      <c r="I23" s="41"/>
-      <c r="J23" s="26"/>
-      <c r="K23" s="40"/>
-      <c r="L23" s="40"/>
-      <c r="M23" s="40"/>
-      <c r="N23" s="41"/>
-      <c r="O23" s="26"/>
-      <c r="P23" s="40"/>
-      <c r="Q23" s="41"/>
-      <c r="R23" s="42"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="6"/>
+      <c r="L23" s="6"/>
+      <c r="M23" s="6"/>
+      <c r="N23" s="7"/>
+      <c r="O23" s="5"/>
+      <c r="P23" s="6"/>
+      <c r="Q23" s="7"/>
+      <c r="R23" s="8"/>
       <c r="S23" s="1"/>
     </row>
     <row r="24" spans="1:19">
       <c r="A24" s="1"/>
-      <c r="B24" s="55" t="s">
+      <c r="B24" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="C24" s="28"/>
-      <c r="D24" s="31"/>
-      <c r="E24" s="31"/>
-      <c r="F24" s="31"/>
-      <c r="G24" s="32"/>
-      <c r="H24" s="28"/>
-      <c r="I24" s="32"/>
-      <c r="J24" s="28"/>
-      <c r="K24" s="31"/>
-      <c r="L24" s="31"/>
-      <c r="M24" s="34"/>
-      <c r="N24" s="32"/>
-      <c r="O24" s="76">
+      <c r="C24" s="15"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="14"/>
+      <c r="J24" s="15"/>
+      <c r="K24" s="13"/>
+      <c r="L24" s="13"/>
+      <c r="M24" s="28"/>
+      <c r="N24" s="14"/>
+      <c r="O24" s="54">
         <v>1</v>
       </c>
-      <c r="P24" s="50">
+      <c r="P24" s="34">
         <v>1</v>
       </c>
-      <c r="Q24" s="32"/>
-      <c r="R24" s="33"/>
+      <c r="Q24" s="14"/>
+      <c r="R24" s="16"/>
       <c r="S24" s="1"/>
     </row>
     <row r="25" spans="1:19">
       <c r="A25" s="1"/>
-      <c r="B25" s="55" t="s">
+      <c r="B25" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="C25" s="28"/>
-      <c r="D25" s="31"/>
-      <c r="E25" s="31"/>
-      <c r="F25" s="31"/>
-      <c r="G25" s="72">
+      <c r="C25" s="15"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="50">
         <v>2</v>
       </c>
-      <c r="H25" s="28"/>
-      <c r="I25" s="32"/>
-      <c r="J25" s="76">
+      <c r="H25" s="15"/>
+      <c r="I25" s="14"/>
+      <c r="J25" s="54">
         <v>2</v>
       </c>
-      <c r="K25" s="31"/>
-      <c r="L25" s="31"/>
-      <c r="M25" s="34"/>
-      <c r="N25" s="32"/>
-      <c r="O25" s="76">
+      <c r="K25" s="13"/>
+      <c r="L25" s="13"/>
+      <c r="M25" s="28"/>
+      <c r="N25" s="14"/>
+      <c r="O25" s="54">
         <v>2</v>
       </c>
-      <c r="P25" s="50">
+      <c r="P25" s="34">
         <v>2</v>
       </c>
-      <c r="Q25" s="72">
+      <c r="Q25" s="50">
         <v>2</v>
       </c>
-      <c r="R25" s="33"/>
+      <c r="R25" s="16"/>
       <c r="S25" s="1"/>
     </row>
     <row r="26" spans="1:19" ht="15.75" thickBot="1">
       <c r="A26" s="1"/>
-      <c r="B26" s="89" t="s">
+      <c r="B26" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="C26" s="30"/>
-      <c r="D26" s="37"/>
-      <c r="E26" s="37"/>
-      <c r="F26" s="37"/>
-      <c r="G26" s="39"/>
-      <c r="H26" s="30"/>
-      <c r="I26" s="39"/>
-      <c r="J26" s="30"/>
-      <c r="K26" s="37"/>
-      <c r="L26" s="37"/>
-      <c r="M26" s="37"/>
-      <c r="N26" s="39"/>
-      <c r="O26" s="30"/>
-      <c r="P26" s="37"/>
-      <c r="Q26" s="90">
+      <c r="C26" s="27"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="19"/>
+      <c r="G26" s="20"/>
+      <c r="H26" s="27"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="27"/>
+      <c r="K26" s="19"/>
+      <c r="L26" s="19"/>
+      <c r="M26" s="19"/>
+      <c r="N26" s="20"/>
+      <c r="O26" s="27"/>
+      <c r="P26" s="19"/>
+      <c r="Q26" s="68">
         <v>3</v>
       </c>
-      <c r="R26" s="87"/>
+      <c r="R26" s="65"/>
       <c r="S26" s="1"/>
     </row>
     <row r="27" spans="1:19">
@@ -2232,22 +2197,22 @@
       <c r="B27" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C27" s="26"/>
-      <c r="D27" s="40"/>
-      <c r="E27" s="40"/>
-      <c r="F27" s="40"/>
-      <c r="G27" s="41"/>
-      <c r="H27" s="26"/>
-      <c r="I27" s="41"/>
-      <c r="J27" s="26"/>
-      <c r="K27" s="40"/>
-      <c r="L27" s="40"/>
-      <c r="M27" s="40"/>
-      <c r="N27" s="41"/>
-      <c r="O27" s="26"/>
-      <c r="P27" s="40"/>
-      <c r="Q27" s="41"/>
-      <c r="R27" s="42"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="6"/>
+      <c r="L27" s="6"/>
+      <c r="M27" s="6"/>
+      <c r="N27" s="7"/>
+      <c r="O27" s="5"/>
+      <c r="P27" s="6"/>
+      <c r="Q27" s="7"/>
+      <c r="R27" s="8"/>
       <c r="S27" s="1"/>
     </row>
     <row r="28" spans="1:19" ht="15.75" thickBot="1">
@@ -2255,22 +2220,22 @@
       <c r="B28" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="C28" s="27"/>
-      <c r="D28" s="38"/>
-      <c r="E28" s="38"/>
-      <c r="F28" s="38"/>
-      <c r="G28" s="43"/>
-      <c r="H28" s="27"/>
-      <c r="I28" s="43"/>
-      <c r="J28" s="27"/>
-      <c r="K28" s="38"/>
-      <c r="L28" s="38"/>
-      <c r="M28" s="38"/>
-      <c r="N28" s="43"/>
-      <c r="O28" s="27"/>
-      <c r="P28" s="38"/>
-      <c r="Q28" s="43"/>
-      <c r="R28" s="78">
+      <c r="C28" s="23"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="24"/>
+      <c r="H28" s="23"/>
+      <c r="I28" s="24"/>
+      <c r="J28" s="23"/>
+      <c r="K28" s="9"/>
+      <c r="L28" s="9"/>
+      <c r="M28" s="9"/>
+      <c r="N28" s="24"/>
+      <c r="O28" s="23"/>
+      <c r="P28" s="9"/>
+      <c r="Q28" s="24"/>
+      <c r="R28" s="56">
         <v>1</v>
       </c>
       <c r="S28" s="1"/>
